--- a/Case1/data.xlsx
+++ b/Case1/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D8392A-08BD-694D-ABC8-FCABF8D95F24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D344D-B1D4-A149-A2F3-C9BEFE1BCBE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="16180" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand" sheetId="1" r:id="rId1"/>
@@ -64,18 +64,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Holding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sales price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Purchasing cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Initial inventory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +89,12 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>Purchasing cost</t>
+  </si>
+  <si>
+    <t>Holding</t>
   </si>
 </sst>
 </file>
@@ -717,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -832,7 +830,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D491EE5-C947-482E-8BED-4CD135F003FC}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="207" workbookViewId="0">
+    <sheetView zoomScale="207" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1145,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,7 +1237,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1255,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB3B84B-BDC4-4043-9F1D-2148AC0D26DD}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1440,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
